--- a/biology/Botanique/Cunonia_macrophylla/Cunonia_macrophylla.xlsx
+++ b/biology/Botanique/Cunonia_macrophylla/Cunonia_macrophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Balayette
-Cunonia macrophylla, aussi appelée Balayette[1], est une espèce de la famille des Cunoniaceae. Elle est endémique de Nouvelle-Calédonie.
+Cunonia macrophylla, aussi appelée Balayette, est une espèce de la famille des Cunoniaceae. Elle est endémique de Nouvelle-Calédonie.
 </t>
         </is>
       </c>
@@ -514,14 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente comme un arbuste d'abord monocaule, puis peu ramifié[1]. Il est en général haut de 50 centimètres à 2 mètres, mais peut atteindre les 5 mètres dans certains cas[2].
-Feuilles
-Les feuilles sont composées, coriaces, et ses nervures médianes sont rouge vif. Les stipules sont particulièrement grosses ; en forme d'oreillettes, elles évoquent les haches-ostensoirs kanak[1].
-Fleurs
-Les fleurs, blanches à jaune-vert pâle, sont disposées en inflorescences en forme de rince-bouteilles tournés vers le bas. Elles sont inodores. La floraison a lieu le plus souvent pendant la saison chaude[1],[2].
-Fruits
-Les fruits sont des capsules déhiscentes[1].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme un arbuste d'abord monocaule, puis peu ramifié. Il est en général haut de 50 centimètres à 2 mètres, mais peut atteindre les 5 mètres dans certains cas.
 </t>
         </is>
       </c>
@@ -547,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce se trouve dans le tiers sud de la Grande Terre (au sud d'une ligne Boulouparis-Thio[2]), dans le maquis minier jusqu'à près de 1200 mètres d'altitude[1],[2]. Elle y est assez commune[2].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont composées, coriaces, et ses nervures médianes sont rouge vif. Les stipules sont particulièrement grosses ; en forme d'oreillettes, elles évoquent les haches-ostensoirs kanak.
 </t>
         </is>
       </c>
@@ -578,12 +595,121 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs, blanches à jaune-vert pâle, sont disposées en inflorescences en forme de rince-bouteilles tournés vers le bas. Elles sont inodores. La floraison a lieu le plus souvent pendant la saison chaude,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cunonia_macrophylla</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cunonia_macrophylla</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des capsules déhiscentes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cunonia_macrophylla</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cunonia_macrophylla</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se trouve dans le tiers sud de la Grande Terre (au sud d'une ligne Boulouparis-Thio), dans le maquis minier jusqu'à près de 1200 mètres d'altitude,. Elle y est assez commune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cunonia_macrophylla</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cunonia_macrophylla</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Usages potentiels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des substances antibiotiques actives ont été extraites de cette espèce[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des substances antibiotiques actives ont été extraites de cette espèce.
 </t>
         </is>
       </c>
